--- a/铝/eta/氧化铝周度库存_月度数据.xlsx
+++ b/铝/eta/氧化铝周度库存_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>475.895</v>
+        <v>379.795</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>483.4275</v>
+        <v>435.5275</v>
       </c>
     </row>
     <row r="4">
